--- a/src/test/resources/MyTestData.xlsx
+++ b/src/test/resources/MyTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\May22nd Data\repos\SeleniumDemoMay22\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Oct 2nd 2023batch\SeleniumDemoOct2nd\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>appName</t>
   </si>
@@ -42,24 +42,12 @@
     <t>https://facebook.com</t>
   </si>
   <si>
-    <t>fbuser1122</t>
-  </si>
-  <si>
     <t>Gmail</t>
   </si>
   <si>
-    <t>https://gmail.com</t>
-  </si>
-  <si>
-    <t>gmailpwd1122</t>
-  </si>
-  <si>
     <t>fbpwd1122</t>
   </si>
   <si>
-    <t>Speakalanguages</t>
-  </si>
-  <si>
     <t>https://speaklanguages.com</t>
   </si>
   <si>
@@ -69,28 +57,22 @@
     <t>slpwd1122</t>
   </si>
   <si>
-    <t>NewColumnJB</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
     <t>kumar#1122</t>
   </si>
   <si>
     <t>Kumar776655</t>
   </si>
   <si>
-    <t>https://rediff.com</t>
-  </si>
-  <si>
-    <t>https://ABC.com</t>
+    <t>Speaklanguages</t>
+  </si>
+  <si>
+    <t>12345gmail</t>
+  </si>
+  <si>
+    <t>https://gmail_xyz.com</t>
+  </si>
+  <si>
+    <t>John#3344</t>
   </si>
 </sst>
 </file>
@@ -98,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -111,6 +93,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -158,34 +147,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -399,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -411,10 +389,9 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="18.08984375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.36328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -427,115 +404,55 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
